--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf1</t>
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H2">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I2">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J2">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N2">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q2">
-        <v>4.37735447647</v>
+        <v>9.471876707678222</v>
       </c>
       <c r="R2">
-        <v>39.39619028823</v>
+        <v>85.24689036910399</v>
       </c>
       <c r="S2">
-        <v>0.003414323801804983</v>
+        <v>0.005700459244513984</v>
       </c>
       <c r="T2">
-        <v>0.003414323801804984</v>
+        <v>0.005700459244513984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H3">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I3">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J3">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N3">
         <v>247.44181</v>
       </c>
       <c r="O3">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P3">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q3">
-        <v>95.78948103245888</v>
+        <v>98.20476053986889</v>
       </c>
       <c r="R3">
-        <v>862.10532929213</v>
+        <v>883.8428448588201</v>
       </c>
       <c r="S3">
-        <v>0.07471551751399789</v>
+        <v>0.0591025677752937</v>
       </c>
       <c r="T3">
-        <v>0.07471551751399791</v>
+        <v>0.0591025677752937</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H4">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I4">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J4">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N4">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O4">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P4">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q4">
-        <v>62.09946524322978</v>
+        <v>79.65740196222289</v>
       </c>
       <c r="R4">
-        <v>558.895187189068</v>
+        <v>716.9166176600061</v>
       </c>
       <c r="S4">
-        <v>0.04843740286491597</v>
+        <v>0.04794021157828463</v>
       </c>
       <c r="T4">
-        <v>0.04843740286491598</v>
+        <v>0.04794021157828462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H5">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I5">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J5">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N5">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q5">
-        <v>0.6638386232934445</v>
+        <v>1.513343975355556</v>
       </c>
       <c r="R5">
-        <v>5.974547609641001</v>
+        <v>13.6200957782</v>
       </c>
       <c r="S5">
-        <v>0.0005177922017172496</v>
+        <v>0.0009107757544449438</v>
       </c>
       <c r="T5">
-        <v>0.0005177922017172496</v>
+        <v>0.0009107757544449436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>15.504521</v>
       </c>
       <c r="I6">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J6">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N6">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q6">
-        <v>19.47972513919</v>
+        <v>41.11425482516356</v>
       </c>
       <c r="R6">
-        <v>175.31752625271</v>
+        <v>370.028293426472</v>
       </c>
       <c r="S6">
-        <v>0.01519412913733013</v>
+        <v>0.02474379061642757</v>
       </c>
       <c r="T6">
-        <v>0.01519412913733013</v>
+        <v>0.02474379061642757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>15.504521</v>
       </c>
       <c r="I7">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J7">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N7">
         <v>247.44181</v>
       </c>
       <c r="O7">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P7">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q7">
-        <v>426.2740821581122</v>
+        <v>426.2740821581123</v>
       </c>
       <c r="R7">
         <v>3836.46673942301</v>
       </c>
       <c r="S7">
-        <v>0.3324925483253789</v>
+        <v>0.256544516712841</v>
       </c>
       <c r="T7">
-        <v>0.3324925483253791</v>
+        <v>0.256544516712841</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>15.504521</v>
       </c>
       <c r="I8">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J8">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N8">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O8">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P8">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q8">
-        <v>276.3496812358484</v>
+        <v>345.7661901712092</v>
       </c>
       <c r="R8">
-        <v>2487.147131122636</v>
+        <v>3111.895711540883</v>
       </c>
       <c r="S8">
-        <v>0.2155519502331179</v>
+        <v>0.2080924547512396</v>
       </c>
       <c r="T8">
-        <v>0.2155519502331179</v>
+        <v>0.2080924547512395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>15.504521</v>
       </c>
       <c r="I9">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J9">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N9">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q9">
-        <v>2.954157354184111</v>
+        <v>6.56892100278889</v>
       </c>
       <c r="R9">
-        <v>26.587416187657</v>
+        <v>59.12028902510001</v>
       </c>
       <c r="S9">
-        <v>0.002304234172235005</v>
+        <v>0.003953373509019087</v>
       </c>
       <c r="T9">
-        <v>0.002304234172235005</v>
+        <v>0.003953373509019086</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H10">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I10">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J10">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N10">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O10">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P10">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q10">
-        <v>10.58721533105</v>
+        <v>32.11699791846933</v>
       </c>
       <c r="R10">
-        <v>95.28493797944999</v>
+        <v>289.052981266224</v>
       </c>
       <c r="S10">
-        <v>0.008257997266145413</v>
+        <v>0.01932897179098233</v>
       </c>
       <c r="T10">
-        <v>0.008257997266145413</v>
+        <v>0.01932897179098233</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H11">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I11">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J11">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N11">
         <v>247.44181</v>
       </c>
       <c r="O11">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P11">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q11">
-        <v>231.6796292353278</v>
+        <v>332.9901968937133</v>
       </c>
       <c r="R11">
-        <v>2085.11666311795</v>
+        <v>2996.91177204342</v>
       </c>
       <c r="S11">
-        <v>0.1807094391700801</v>
+        <v>0.2004034791412095</v>
       </c>
       <c r="T11">
-        <v>0.1807094391700801</v>
+        <v>0.2004034791412095</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H12">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I12">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J12">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N12">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O12">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P12">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q12">
-        <v>150.1958349517355</v>
+        <v>270.1002865606874</v>
       </c>
       <c r="R12">
-        <v>1351.76251456562</v>
+        <v>2430.902579046186</v>
       </c>
       <c r="S12">
-        <v>0.1171523158483686</v>
+        <v>0.1625544464934407</v>
       </c>
       <c r="T12">
-        <v>0.1171523158483686</v>
+        <v>0.1625544464934407</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.037194</v>
+      </c>
+      <c r="H13">
+        <v>12.111582</v>
+      </c>
+      <c r="I13">
+        <v>0.3853751326204581</v>
+      </c>
+      <c r="J13">
+        <v>0.3853751326204581</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.271033333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.8131</v>
+      </c>
+      <c r="O13">
+        <v>0.008013581919067616</v>
+      </c>
+      <c r="P13">
+        <v>0.008013581919067614</v>
+      </c>
+      <c r="Q13">
+        <v>5.131408147133334</v>
+      </c>
+      <c r="R13">
+        <v>46.1826733242</v>
+      </c>
+      <c r="S13">
+        <v>0.003088235194825587</v>
+      </c>
+      <c r="T13">
+        <v>0.003088235194825587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.808898333333333</v>
-      </c>
-      <c r="H13">
-        <v>8.426695</v>
-      </c>
-      <c r="I13">
-        <v>0.3073721017495019</v>
-      </c>
-      <c r="J13">
-        <v>0.3073721017495019</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.5716056666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.714817</v>
-      </c>
-      <c r="O13">
-        <v>0.004074375838860062</v>
-      </c>
-      <c r="P13">
-        <v>0.004074375838860062</v>
-      </c>
-      <c r="Q13">
-        <v>1.605582204423889</v>
-      </c>
-      <c r="R13">
-        <v>14.450239839815</v>
-      </c>
-      <c r="S13">
-        <v>0.001252349464907807</v>
-      </c>
-      <c r="T13">
-        <v>0.001252349464907807</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.240007</v>
+      </c>
+      <c r="I14">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J14">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.955277333333332</v>
+      </c>
+      <c r="N14">
+        <v>23.865832</v>
+      </c>
+      <c r="O14">
+        <v>0.05015625076675284</v>
+      </c>
+      <c r="P14">
+        <v>0.05015625076675283</v>
+      </c>
+      <c r="Q14">
+        <v>0.6364407489804443</v>
+      </c>
+      <c r="R14">
+        <v>5.727966740823999</v>
+      </c>
+      <c r="S14">
+        <v>0.0003830291148289542</v>
+      </c>
+      <c r="T14">
+        <v>0.0003830291148289542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.240007</v>
+      </c>
+      <c r="I15">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J15">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>82.48060333333333</v>
+      </c>
+      <c r="N15">
+        <v>247.44181</v>
+      </c>
+      <c r="O15">
+        <v>0.520021823355633</v>
+      </c>
+      <c r="P15">
+        <v>0.520021823355633</v>
+      </c>
+      <c r="Q15">
+        <v>6.598640721407778</v>
+      </c>
+      <c r="R15">
+        <v>59.38776649267</v>
+      </c>
+      <c r="S15">
+        <v>0.003971259726288792</v>
+      </c>
+      <c r="T15">
+        <v>0.003971259726288792</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.240007</v>
+      </c>
+      <c r="I16">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J16">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>66.90297433333333</v>
+      </c>
+      <c r="N16">
+        <v>200.708923</v>
+      </c>
+      <c r="O16">
+        <v>0.4218083439585467</v>
+      </c>
+      <c r="P16">
+        <v>0.4218083439585465</v>
+      </c>
+      <c r="Q16">
+        <v>5.352394053606777</v>
+      </c>
+      <c r="R16">
+        <v>48.171546482461</v>
+      </c>
+      <c r="S16">
+        <v>0.003221231135581728</v>
+      </c>
+      <c r="T16">
+        <v>0.003221231135581728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.240007</v>
+      </c>
+      <c r="I17">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J17">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.271033333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.8131</v>
+      </c>
+      <c r="O17">
+        <v>0.008013581919067616</v>
+      </c>
+      <c r="P17">
+        <v>0.008013581919067614</v>
+      </c>
+      <c r="Q17">
+        <v>0.1016856324111111</v>
+      </c>
+      <c r="R17">
+        <v>0.9151706917000001</v>
+      </c>
+      <c r="S17">
+        <v>6.119746077799785E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.119746077799783E-05</v>
       </c>
     </row>
   </sheetData>
